--- a/trunk/Documents/BusinessSimulationValuesForComputer.xlsx
+++ b/trunk/Documents/BusinessSimulationValuesForComputer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="12375" windowHeight="2805" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="12375" windowHeight="2805" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RnDData" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Production" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="hrtqm" localSheetId="5">Production!$W$7</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="545">
   <si>
     <t>Name</t>
   </si>
@@ -1598,6 +1599,69 @@
   <si>
     <t>7-28-2017</t>
   </si>
+  <si>
+    <t>$10.17</t>
+  </si>
+  <si>
+    <t>$15.91</t>
+  </si>
+  <si>
+    <t>$14.85</t>
+  </si>
+  <si>
+    <t>$12.64</t>
+  </si>
+  <si>
+    <t>$9.84</t>
+  </si>
+  <si>
+    <t>$6.75</t>
+  </si>
+  <si>
+    <t>$15.86</t>
+  </si>
+  <si>
+    <t>$15.92</t>
+  </si>
+  <si>
+    <t>$13.26</t>
+  </si>
+  <si>
+    <t>$11.31</t>
+  </si>
+  <si>
+    <t>$16.16</t>
+  </si>
+  <si>
+    <t>$13.71</t>
+  </si>
+  <si>
+    <t>$9.69</t>
+  </si>
+  <si>
+    <t>$13.13</t>
+  </si>
+  <si>
+    <t>$13.32</t>
+  </si>
+  <si>
+    <t>$11.40</t>
+  </si>
+  <si>
+    <t>$10.70</t>
+  </si>
+  <si>
+    <t>$6.45</t>
+  </si>
+  <si>
+    <t>$16.51</t>
+  </si>
+  <si>
+    <t>$16.18</t>
+  </si>
+  <si>
+    <t>$13.72</t>
+  </si>
 </sst>
 </file>
 
@@ -18417,8 +18481,8 @@
   <dimension ref="A1:R248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:O27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32470,7 +32534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
@@ -45011,18 +45075,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y248"/>
+  <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="11" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25">
+    <row r="1" spans="1:26" ht="38.25">
       <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
@@ -45059,10 +45124,10 @@
       <c r="L1" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -45073,25 +45138,26 @@
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="18"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="37"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="17"/>
       <c r="R2" s="19"/>
-      <c r="S2" s="17"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
-      <c r="Y2" s="19"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -45136,23 +45202,26 @@
         <f>RnDData!F28</f>
         <v>1328</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="39">
+        <v>1176</v>
+      </c>
+      <c r="N3">
         <f>L3*F3</f>
         <v>36254.400000000001</v>
       </c>
-      <c r="O3" s="17"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="17"/>
       <c r="R3" s="19"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="19"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -45197,23 +45266,26 @@
         <f>RnDData!F29</f>
         <v>1672</v>
       </c>
-      <c r="M4" s="37">
-        <f t="shared" ref="M4:M67" si="0">L4*F4</f>
+      <c r="M4" s="39">
+        <v>1545</v>
+      </c>
+      <c r="N4" s="37">
+        <f t="shared" ref="N4:N67" si="0">L4*F4</f>
         <v>35948</v>
       </c>
-      <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="19"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -45259,22 +45331,25 @@
         <v>634</v>
       </c>
       <c r="M5" s="37">
+        <v>521</v>
+      </c>
+      <c r="N5" s="37">
         <f t="shared" si="0"/>
         <v>23838.400000000001</v>
       </c>
-      <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="19"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
-      <c r="Y5" s="19"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="37">
         <v>1</v>
       </c>
@@ -45320,22 +45395,25 @@
         <v>474</v>
       </c>
       <c r="M6" s="37">
+        <v>410</v>
+      </c>
+      <c r="N6" s="37">
         <f t="shared" si="0"/>
         <v>15642</v>
       </c>
-      <c r="O6" s="17"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="19"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="37">
         <v>1</v>
       </c>
@@ -45381,11 +45459,14 @@
         <v>508</v>
       </c>
       <c r="M7" s="37">
+        <v>447</v>
+      </c>
+      <c r="N7" s="37">
         <f t="shared" si="0"/>
         <v>16332.199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="37">
         <v>1</v>
       </c>
@@ -45430,12 +45511,15 @@
         <f>RnDData!F33</f>
         <v>1328</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="39">
+        <v>1211</v>
+      </c>
+      <c r="N8" s="37">
         <f t="shared" si="0"/>
         <v>35856</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="37">
         <v>1</v>
       </c>
@@ -45480,12 +45564,15 @@
         <f>RnDData!F34</f>
         <v>2118</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="39">
+        <v>1953</v>
+      </c>
+      <c r="N9" s="37">
         <f t="shared" si="0"/>
         <v>42360</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="37">
         <v>1</v>
       </c>
@@ -45531,11 +45618,14 @@
         <v>585</v>
       </c>
       <c r="M10" s="37">
+        <v>478</v>
+      </c>
+      <c r="N10" s="37">
         <f t="shared" si="0"/>
         <v>22230</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="37">
         <v>1</v>
       </c>
@@ -45581,11 +45671,14 @@
         <v>523</v>
       </c>
       <c r="M11" s="37">
+        <v>490</v>
+      </c>
+      <c r="N11" s="37">
         <f t="shared" si="0"/>
         <v>17259</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="37">
         <v>1</v>
       </c>
@@ -45631,11 +45724,14 @@
         <v>458</v>
       </c>
       <c r="M12" s="37">
+        <v>390</v>
+      </c>
+      <c r="N12" s="37">
         <f t="shared" si="0"/>
         <v>15114</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="37">
         <v>1</v>
       </c>
@@ -45680,12 +45776,15 @@
         <f>RnDData!F38</f>
         <v>1327</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="39">
+        <v>1196</v>
+      </c>
+      <c r="N13" s="37">
         <f t="shared" si="0"/>
         <v>39146.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="37">
         <v>1</v>
       </c>
@@ -45730,12 +45829,15 @@
         <f>RnDData!F39</f>
         <v>1722</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="39">
+        <v>1584</v>
+      </c>
+      <c r="N14" s="37">
         <f t="shared" si="0"/>
         <v>37884</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="37">
         <v>1</v>
       </c>
@@ -45781,11 +45883,14 @@
         <v>585</v>
       </c>
       <c r="M15" s="37">
+        <v>465</v>
+      </c>
+      <c r="N15" s="37">
         <f t="shared" si="0"/>
         <v>23107.5</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="37">
         <v>1</v>
       </c>
@@ -45831,11 +45936,14 @@
         <v>523</v>
       </c>
       <c r="M16" s="37">
+        <v>488</v>
+      </c>
+      <c r="N16" s="37">
         <f t="shared" si="0"/>
         <v>18043.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="37">
         <v>1</v>
       </c>
@@ -45881,11 +45989,14 @@
         <v>458</v>
       </c>
       <c r="M17" s="37">
+        <v>411</v>
+      </c>
+      <c r="N17" s="37">
         <f t="shared" si="0"/>
         <v>15801</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="37">
         <v>1</v>
       </c>
@@ -45930,12 +46041,15 @@
         <f>RnDData!F43</f>
         <v>1427</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="39">
+        <v>1297</v>
+      </c>
+      <c r="N18" s="37">
         <f t="shared" si="0"/>
         <v>38529</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="37">
         <v>1</v>
       </c>
@@ -45980,12 +46094,15 @@
         <f>RnDData!F44</f>
         <v>2316</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="39">
+        <v>2128</v>
+      </c>
+      <c r="N19" s="37">
         <f t="shared" si="0"/>
         <v>46320</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="37">
         <v>1</v>
       </c>
@@ -46031,11 +46148,14 @@
         <v>386</v>
       </c>
       <c r="M20" s="37">
+        <v>285</v>
+      </c>
+      <c r="N20" s="37">
         <f t="shared" si="0"/>
         <v>15247</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="37">
         <v>1</v>
       </c>
@@ -46081,11 +46201,14 @@
         <v>375</v>
       </c>
       <c r="M21" s="37">
+        <v>302</v>
+      </c>
+      <c r="N21" s="37">
         <f t="shared" si="0"/>
         <v>12937.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="37">
         <v>1</v>
       </c>
@@ -46131,11 +46254,14 @@
         <v>360</v>
       </c>
       <c r="M22" s="37">
+        <v>276</v>
+      </c>
+      <c r="N22" s="37">
         <f t="shared" si="0"/>
         <v>12420</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="37">
         <v>1</v>
       </c>
@@ -46180,12 +46306,15 @@
         <f>RnDData!F48</f>
         <v>1675</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="39">
+        <v>1529</v>
+      </c>
+      <c r="N23" s="37">
         <f t="shared" si="0"/>
         <v>49412.5</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="37">
         <v>1</v>
       </c>
@@ -46230,12 +46359,15 @@
         <f>RnDData!F49</f>
         <v>1524</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="39">
+        <v>1343</v>
+      </c>
+      <c r="N24" s="37">
         <f t="shared" si="0"/>
         <v>33528</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="37">
         <v>1</v>
       </c>
@@ -46281,11 +46413,14 @@
         <v>535</v>
       </c>
       <c r="M25" s="37">
+        <v>427</v>
+      </c>
+      <c r="N25" s="37">
         <f t="shared" si="0"/>
         <v>21132.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="37">
         <v>1</v>
       </c>
@@ -46331,11 +46466,14 @@
         <v>473</v>
       </c>
       <c r="M26" s="37">
+        <v>436</v>
+      </c>
+      <c r="N26" s="37">
         <f t="shared" si="0"/>
         <v>16318.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="37">
         <v>1</v>
       </c>
@@ -46381,11 +46519,14 @@
         <v>458</v>
       </c>
       <c r="M27" s="37">
+        <v>367</v>
+      </c>
+      <c r="N27" s="37">
         <f t="shared" si="0"/>
         <v>15801</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="37">
         <v>2</v>
       </c>
@@ -46430,12 +46571,12 @@
         <f>RnDData!F53</f>
         <v>1326</v>
       </c>
-      <c r="M28" s="37">
+      <c r="N28" s="37">
         <f t="shared" si="0"/>
         <v>35404.199999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="37">
         <v>2</v>
       </c>
@@ -46480,12 +46621,12 @@
         <f>RnDData!F54</f>
         <v>1853</v>
       </c>
-      <c r="M29" s="37">
+      <c r="N29" s="37">
         <f t="shared" si="0"/>
         <v>38542.400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="37">
         <v>2</v>
       </c>
@@ -46530,12 +46671,12 @@
         <f>RnDData!F55</f>
         <v>652</v>
       </c>
-      <c r="M30" s="37">
+      <c r="N30" s="37">
         <f t="shared" si="0"/>
         <v>23993.599999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="37">
         <v>2</v>
       </c>
@@ -46580,12 +46721,12 @@
         <f>RnDData!F56</f>
         <v>454</v>
       </c>
-      <c r="M31" s="37">
+      <c r="N31" s="37">
         <f t="shared" si="0"/>
         <v>14528</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="37">
         <v>2</v>
       </c>
@@ -46630,12 +46771,12 @@
         <f>RnDData!F57</f>
         <v>551</v>
       </c>
-      <c r="M32" s="37">
+      <c r="N32" s="37">
         <f t="shared" si="0"/>
         <v>17301.399999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="37">
         <v>2</v>
       </c>
@@ -46662,12 +46803,12 @@
         <f>RnDData!F58</f>
         <v>0</v>
       </c>
-      <c r="M33" s="37">
+      <c r="N33" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="37">
         <v>2</v>
       </c>
@@ -46712,12 +46853,12 @@
         <f>RnDData!F59</f>
         <v>1242</v>
       </c>
-      <c r="M34" s="37">
+      <c r="N34" s="37">
         <f t="shared" si="0"/>
         <v>32913</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="37">
         <v>2</v>
       </c>
@@ -46762,12 +46903,12 @@
         <f>RnDData!F60</f>
         <v>2087</v>
       </c>
-      <c r="M35" s="37">
+      <c r="N35" s="37">
         <f t="shared" si="0"/>
         <v>40696.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="37">
         <v>2</v>
       </c>
@@ -46812,12 +46953,12 @@
         <f>RnDData!F61</f>
         <v>647</v>
       </c>
-      <c r="M36" s="37">
+      <c r="N36" s="37">
         <f t="shared" si="0"/>
         <v>24262.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="37">
         <v>2</v>
       </c>
@@ -46862,12 +47003,12 @@
         <f>RnDData!F62</f>
         <v>625</v>
       </c>
-      <c r="M37" s="37">
+      <c r="N37" s="37">
         <f t="shared" si="0"/>
         <v>20312.5</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="37">
         <v>2</v>
       </c>
@@ -46912,12 +47053,12 @@
         <f>RnDData!F63</f>
         <v>655</v>
       </c>
-      <c r="M38" s="37">
+      <c r="N38" s="37">
         <f t="shared" si="0"/>
         <v>21287.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="37">
         <v>2</v>
       </c>
@@ -46962,12 +47103,12 @@
         <f>RnDData!F64</f>
         <v>1452</v>
       </c>
-      <c r="M39" s="37">
+      <c r="N39" s="37">
         <f t="shared" si="0"/>
         <v>42108</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="37">
         <v>2</v>
       </c>
@@ -47012,12 +47153,12 @@
         <f>RnDData!F65</f>
         <v>1864</v>
       </c>
-      <c r="M40" s="37">
+      <c r="N40" s="37">
         <f t="shared" si="0"/>
         <v>40076</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="37">
         <v>2</v>
       </c>
@@ -47062,12 +47203,12 @@
         <f>RnDData!F66</f>
         <v>807</v>
       </c>
-      <c r="M41" s="37">
+      <c r="N41" s="37">
         <f t="shared" si="0"/>
         <v>31473</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="37">
         <v>2</v>
       </c>
@@ -47112,12 +47253,12 @@
         <f>RnDData!F67</f>
         <v>677</v>
       </c>
-      <c r="M42" s="37">
+      <c r="N42" s="37">
         <f t="shared" si="0"/>
         <v>23018</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="37">
         <v>2</v>
       </c>
@@ -47162,12 +47303,12 @@
         <f>RnDData!F68</f>
         <v>681</v>
       </c>
-      <c r="M43" s="37">
+      <c r="N43" s="37">
         <f t="shared" si="0"/>
         <v>23154</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="37">
         <v>2</v>
       </c>
@@ -47194,12 +47335,12 @@
         <f>RnDData!F69</f>
         <v>0</v>
       </c>
-      <c r="M44" s="37">
+      <c r="N44" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="37">
         <v>2</v>
       </c>
@@ -47244,12 +47385,12 @@
         <f>RnDData!F70</f>
         <v>1551</v>
       </c>
-      <c r="M45" s="37">
+      <c r="N45" s="37">
         <f t="shared" si="0"/>
         <v>34122</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="37">
         <v>2</v>
       </c>
@@ -47294,12 +47435,12 @@
         <f>RnDData!F71</f>
         <v>2307</v>
       </c>
-      <c r="M46" s="37">
+      <c r="N46" s="37">
         <f t="shared" si="0"/>
         <v>44986.5</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="37">
         <v>2</v>
       </c>
@@ -47344,12 +47485,12 @@
         <f>RnDData!F72</f>
         <v>1236</v>
       </c>
-      <c r="M47" s="37">
+      <c r="N47" s="37">
         <f t="shared" si="0"/>
         <v>34608</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="37">
         <v>2</v>
       </c>
@@ -47394,12 +47535,12 @@
         <f>RnDData!F73</f>
         <v>1059</v>
       </c>
-      <c r="M48" s="37">
+      <c r="N48" s="37">
         <f t="shared" si="0"/>
         <v>29652</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="37">
         <v>2</v>
       </c>
@@ -47444,12 +47585,12 @@
         <f>RnDData!F74</f>
         <v>1024</v>
       </c>
-      <c r="M49" s="37">
+      <c r="N49" s="37">
         <f t="shared" si="0"/>
         <v>28672</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="37">
         <v>2</v>
       </c>
@@ -47494,12 +47635,12 @@
         <f>RnDData!F75</f>
         <v>993</v>
       </c>
-      <c r="M50" s="37">
+      <c r="N50" s="37">
         <f t="shared" si="0"/>
         <v>28797</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="37">
         <v>2</v>
       </c>
@@ -47544,12 +47685,12 @@
         <f>RnDData!F76</f>
         <v>1659</v>
       </c>
-      <c r="M51" s="37">
+      <c r="N51" s="37">
         <f t="shared" si="0"/>
         <v>35668.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="37">
         <v>2</v>
       </c>
@@ -47594,12 +47735,12 @@
         <f>RnDData!F77</f>
         <v>844</v>
       </c>
-      <c r="M52" s="37">
+      <c r="N52" s="37">
         <f t="shared" si="0"/>
         <v>32916</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="37">
         <v>2</v>
       </c>
@@ -47644,12 +47785,12 @@
         <f>RnDData!F78</f>
         <v>678</v>
       </c>
-      <c r="M53" s="37">
+      <c r="N53" s="37">
         <f t="shared" si="0"/>
         <v>23052</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="37">
         <v>2</v>
       </c>
@@ -47694,12 +47835,12 @@
         <f>RnDData!F79</f>
         <v>730</v>
       </c>
-      <c r="M54" s="37">
+      <c r="N54" s="37">
         <f t="shared" si="0"/>
         <v>24820</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="37">
         <v>2</v>
       </c>
@@ -47732,12 +47873,12 @@
         <f>RnDData!F80</f>
         <v>0</v>
       </c>
-      <c r="M55" s="37">
+      <c r="N55" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="37">
         <v>3</v>
       </c>
@@ -47782,12 +47923,12 @@
         <f>RnDData!F81</f>
         <v>1481</v>
       </c>
-      <c r="M56" s="37">
+      <c r="N56" s="37">
         <f t="shared" si="0"/>
         <v>32582</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="37">
         <v>3</v>
       </c>
@@ -47832,12 +47973,12 @@
         <f>RnDData!F82</f>
         <v>1973</v>
       </c>
-      <c r="M57" s="37">
+      <c r="N57" s="37">
         <f t="shared" si="0"/>
         <v>41038.400000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="37">
         <v>3</v>
       </c>
@@ -47882,12 +48023,12 @@
         <f>RnDData!F83</f>
         <v>277</v>
       </c>
-      <c r="M58" s="37">
+      <c r="N58" s="37">
         <f t="shared" si="0"/>
         <v>10249</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="37">
         <v>3</v>
       </c>
@@ -47932,12 +48073,12 @@
         <f>RnDData!F84</f>
         <v>752</v>
       </c>
-      <c r="M59" s="37">
+      <c r="N59" s="37">
         <f t="shared" si="0"/>
         <v>21432</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="37">
         <v>3</v>
       </c>
@@ -47982,12 +48123,12 @@
         <f>RnDData!F85</f>
         <v>876</v>
       </c>
-      <c r="M60" s="37">
+      <c r="N60" s="37">
         <f t="shared" si="0"/>
         <v>24966</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="37">
         <v>3</v>
       </c>
@@ -48032,12 +48173,12 @@
         <f>RnDData!F86</f>
         <v>168</v>
       </c>
-      <c r="M61" s="37">
+      <c r="N61" s="37">
         <f t="shared" si="0"/>
         <v>4788</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="37">
         <v>3</v>
       </c>
@@ -48082,12 +48223,12 @@
         <f>RnDData!F87</f>
         <v>1095</v>
       </c>
-      <c r="M62" s="37">
+      <c r="N62" s="37">
         <f t="shared" si="0"/>
         <v>28470</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="37">
         <v>3</v>
       </c>
@@ -48132,12 +48273,12 @@
         <f>RnDData!F88</f>
         <v>2282</v>
       </c>
-      <c r="M63" s="37">
+      <c r="N63" s="37">
         <f t="shared" si="0"/>
         <v>43358</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="37">
         <v>3</v>
       </c>
@@ -48182,12 +48323,12 @@
         <f>RnDData!F89</f>
         <v>700</v>
       </c>
-      <c r="M64" s="37">
+      <c r="N64" s="37">
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="37">
         <v>3</v>
       </c>
@@ -48232,12 +48373,12 @@
         <f>RnDData!F90</f>
         <v>643</v>
       </c>
-      <c r="M65" s="37">
+      <c r="N65" s="37">
         <f t="shared" si="0"/>
         <v>20576</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="37">
         <v>3</v>
       </c>
@@ -48282,12 +48423,12 @@
         <f>RnDData!F91</f>
         <v>669</v>
       </c>
-      <c r="M66" s="37">
+      <c r="N66" s="37">
         <f t="shared" si="0"/>
         <v>21408</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="37">
         <v>3</v>
       </c>
@@ -48332,12 +48473,12 @@
         <f>RnDData!F92</f>
         <v>1470</v>
       </c>
-      <c r="M67" s="37">
+      <c r="N67" s="37">
         <f t="shared" si="0"/>
         <v>41895</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="37">
         <v>3</v>
       </c>
@@ -48382,12 +48523,12 @@
         <f>RnDData!F93</f>
         <v>1968</v>
       </c>
-      <c r="M68" s="37">
-        <f t="shared" ref="M68:M131" si="17">L68*F68</f>
+      <c r="N68" s="37">
+        <f t="shared" ref="N68:N131" si="17">L68*F68</f>
         <v>41328</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="37">
         <v>3</v>
       </c>
@@ -48432,12 +48573,12 @@
         <f>RnDData!F94</f>
         <v>913</v>
       </c>
-      <c r="M69" s="37">
+      <c r="N69" s="37">
         <f t="shared" si="17"/>
         <v>35150.5</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="37">
         <v>3</v>
       </c>
@@ -48482,12 +48623,12 @@
         <f>RnDData!F95</f>
         <v>760</v>
       </c>
-      <c r="M70" s="37">
+      <c r="N70" s="37">
         <f t="shared" si="17"/>
         <v>25460</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="37">
         <v>3</v>
       </c>
@@ -48532,12 +48673,12 @@
         <f>RnDData!F96</f>
         <v>793</v>
       </c>
-      <c r="M71" s="37">
+      <c r="N71" s="37">
         <f t="shared" si="17"/>
         <v>26565.5</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="37">
         <v>3</v>
       </c>
@@ -48582,12 +48723,12 @@
         <f>RnDData!F97</f>
         <v>198</v>
       </c>
-      <c r="M72" s="37">
+      <c r="N72" s="37">
         <f t="shared" si="17"/>
         <v>6633</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="37">
         <v>3</v>
       </c>
@@ -48614,12 +48755,12 @@
         <f>RnDData!F98</f>
         <v>0</v>
       </c>
-      <c r="M73" s="37">
+      <c r="N73" s="37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="37">
         <v>3</v>
       </c>
@@ -48664,12 +48805,12 @@
         <f>RnDData!F99</f>
         <v>1179</v>
       </c>
-      <c r="M74" s="37">
+      <c r="N74" s="37">
         <f t="shared" si="17"/>
         <v>23580</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="37">
         <v>3</v>
       </c>
@@ -48714,12 +48855,12 @@
         <f>RnDData!F100</f>
         <v>2471</v>
       </c>
-      <c r="M75" s="37">
+      <c r="N75" s="37">
         <f t="shared" si="17"/>
         <v>46949</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="37">
         <v>3</v>
       </c>
@@ -48764,12 +48905,12 @@
         <f>RnDData!F101</f>
         <v>1262</v>
       </c>
-      <c r="M76" s="37">
+      <c r="N76" s="37">
         <f t="shared" si="17"/>
         <v>34074</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="37">
         <v>3</v>
       </c>
@@ -48814,12 +48955,12 @@
         <f>RnDData!F102</f>
         <v>946</v>
       </c>
-      <c r="M77" s="37">
+      <c r="N77" s="37">
         <f t="shared" si="17"/>
         <v>25542</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="37">
         <v>3</v>
       </c>
@@ -48864,12 +49005,12 @@
         <f>RnDData!F103</f>
         <v>1204</v>
       </c>
-      <c r="M78" s="37">
+      <c r="N78" s="37">
         <f t="shared" si="17"/>
         <v>32508</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" s="37">
         <v>3</v>
       </c>
@@ -48914,12 +49055,12 @@
         <f>RnDData!F104</f>
         <v>1232</v>
       </c>
-      <c r="M79" s="37">
+      <c r="N79" s="37">
         <f t="shared" si="17"/>
         <v>35112</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="37">
         <v>3</v>
       </c>
@@ -48964,12 +49105,12 @@
         <f>RnDData!F105</f>
         <v>1442</v>
       </c>
-      <c r="M80" s="37">
+      <c r="N80" s="37">
         <f t="shared" si="17"/>
         <v>31724</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="37">
         <v>3</v>
       </c>
@@ -49014,12 +49155,12 @@
         <f>RnDData!F106</f>
         <v>1129</v>
       </c>
-      <c r="M81" s="37">
+      <c r="N81" s="37">
         <f t="shared" si="17"/>
         <v>43466.5</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:14">
       <c r="A82" s="37">
         <v>3</v>
       </c>
@@ -49064,12 +49205,12 @@
         <f>RnDData!F107</f>
         <v>889</v>
       </c>
-      <c r="M82" s="37">
+      <c r="N82" s="37">
         <f t="shared" si="17"/>
         <v>29781.5</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="37">
         <v>3</v>
       </c>
@@ -49114,12 +49255,12 @@
         <f>RnDData!F108</f>
         <v>940</v>
       </c>
-      <c r="M83" s="37">
+      <c r="N83" s="37">
         <f t="shared" si="17"/>
         <v>31490</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14">
       <c r="A84" s="37">
         <v>3</v>
       </c>
@@ -49161,12 +49302,12 @@
         <f>RnDData!F109</f>
         <v>333</v>
       </c>
-      <c r="M84" s="37">
+      <c r="N84" s="37">
         <f t="shared" si="17"/>
         <v>12820.5</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:14">
       <c r="A85" s="37">
         <v>3</v>
       </c>
@@ -49199,12 +49340,12 @@
         <f>RnDData!F110</f>
         <v>0</v>
       </c>
-      <c r="M85" s="37">
+      <c r="N85" s="37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="37">
         <v>4</v>
       </c>
@@ -49249,12 +49390,12 @@
         <f>RnDData!F111</f>
         <v>887</v>
       </c>
-      <c r="M86" s="37">
+      <c r="N86" s="37">
         <f t="shared" si="17"/>
         <v>18627</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="37">
         <v>4</v>
       </c>
@@ -49299,12 +49440,12 @@
         <f>RnDData!F112</f>
         <v>1730</v>
       </c>
-      <c r="M87" s="37">
+      <c r="N87" s="37">
         <f t="shared" si="17"/>
         <v>34600</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:14">
       <c r="A88" s="37">
         <v>4</v>
       </c>
@@ -49349,12 +49490,12 @@
         <f>RnDData!F113</f>
         <v>1283</v>
       </c>
-      <c r="M88" s="37">
+      <c r="N88" s="37">
         <f t="shared" si="17"/>
         <v>35924</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="37">
         <v>4</v>
       </c>
@@ -49399,12 +49540,12 @@
         <f>RnDData!F114</f>
         <v>1050</v>
       </c>
-      <c r="M89" s="37">
+      <c r="N89" s="37">
         <f t="shared" si="17"/>
         <v>29400</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:14">
       <c r="A90" s="37">
         <v>4</v>
       </c>
@@ -49449,12 +49590,12 @@
         <f>RnDData!F115</f>
         <v>1133</v>
       </c>
-      <c r="M90" s="37">
+      <c r="N90" s="37">
         <f t="shared" si="17"/>
         <v>31724</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:14">
       <c r="A91" s="37">
         <v>4</v>
       </c>
@@ -49499,12 +49640,12 @@
         <f>RnDData!F116</f>
         <v>792</v>
       </c>
-      <c r="M91" s="37">
+      <c r="N91" s="37">
         <f t="shared" si="17"/>
         <v>30096</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:14">
       <c r="A92" s="37">
         <v>4</v>
       </c>
@@ -49543,12 +49684,12 @@
         <f>RnDData!F117</f>
         <v>0</v>
       </c>
-      <c r="M92" s="37">
+      <c r="N92" s="37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="37">
         <v>4</v>
       </c>
@@ -49593,12 +49734,12 @@
         <f>RnDData!F118</f>
         <v>1157</v>
       </c>
-      <c r="M93" s="37">
+      <c r="N93" s="37">
         <f t="shared" si="17"/>
         <v>29503.5</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="37">
         <v>4</v>
       </c>
@@ -49643,12 +49784,12 @@
         <f>RnDData!F119</f>
         <v>2578</v>
       </c>
-      <c r="M94" s="37">
+      <c r="N94" s="37">
         <f t="shared" si="17"/>
         <v>47693</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:14">
       <c r="A95" s="37">
         <v>4</v>
       </c>
@@ -49693,12 +49834,12 @@
         <f>RnDData!F120</f>
         <v>840</v>
       </c>
-      <c r="M95" s="37">
+      <c r="N95" s="37">
         <f t="shared" si="17"/>
         <v>30660</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="37">
         <v>4</v>
       </c>
@@ -49743,12 +49884,12 @@
         <f>RnDData!F121</f>
         <v>833</v>
       </c>
-      <c r="M96" s="37">
+      <c r="N96" s="37">
         <f t="shared" si="17"/>
         <v>26239.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:14">
       <c r="A97" s="37">
         <v>4</v>
       </c>
@@ -49793,12 +49934,12 @@
         <f>RnDData!F122</f>
         <v>932</v>
       </c>
-      <c r="M97" s="37">
+      <c r="N97" s="37">
         <f t="shared" si="17"/>
         <v>29358</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="37">
         <v>4</v>
       </c>
@@ -49843,12 +49984,12 @@
         <f>RnDData!F123</f>
         <v>1355</v>
       </c>
-      <c r="M98" s="37">
+      <c r="N98" s="37">
         <f t="shared" si="17"/>
         <v>37940</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="37">
         <v>4</v>
       </c>
@@ -49893,12 +50034,12 @@
         <f>RnDData!F124</f>
         <v>1998</v>
       </c>
-      <c r="M99" s="37">
+      <c r="N99" s="37">
         <f t="shared" si="17"/>
         <v>40959</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:14">
       <c r="A100" s="37">
         <v>4</v>
       </c>
@@ -49943,12 +50084,12 @@
         <f>RnDData!F125</f>
         <v>997</v>
       </c>
-      <c r="M100" s="37">
+      <c r="N100" s="37">
         <f t="shared" si="17"/>
         <v>37886</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="37">
         <v>4</v>
       </c>
@@ -49993,12 +50134,12 @@
         <f>RnDData!F126</f>
         <v>957</v>
       </c>
-      <c r="M101" s="37">
+      <c r="N101" s="37">
         <f t="shared" si="17"/>
         <v>31581</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:14">
       <c r="A102" s="37">
         <v>4</v>
       </c>
@@ -50043,12 +50184,12 @@
         <f>RnDData!F127</f>
         <v>1074</v>
       </c>
-      <c r="M102" s="37">
+      <c r="N102" s="37">
         <f t="shared" si="17"/>
         <v>35442</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:14">
       <c r="A103" s="37">
         <v>4</v>
       </c>
@@ -50093,12 +50234,12 @@
         <f>RnDData!F128</f>
         <v>731</v>
       </c>
-      <c r="M103" s="37">
+      <c r="N103" s="37">
         <f t="shared" si="17"/>
         <v>24123</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:14">
       <c r="A104" s="37">
         <v>4</v>
       </c>
@@ -50143,12 +50284,12 @@
         <f>RnDData!F129</f>
         <v>247</v>
       </c>
-      <c r="M104" s="37">
+      <c r="N104" s="37">
         <f t="shared" si="17"/>
         <v>8151</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:14">
       <c r="A105" s="37">
         <v>4</v>
       </c>
@@ -50193,12 +50334,12 @@
         <f>RnDData!F130</f>
         <v>1373</v>
       </c>
-      <c r="M105" s="37">
+      <c r="N105" s="37">
         <f t="shared" si="17"/>
         <v>26773.5</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:14">
       <c r="A106" s="37">
         <v>4</v>
       </c>
@@ -50243,12 +50384,12 @@
         <f>RnDData!F131</f>
         <v>2622</v>
       </c>
-      <c r="M106" s="37">
+      <c r="N106" s="37">
         <f t="shared" si="17"/>
         <v>48507</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:14">
       <c r="A107" s="37">
         <v>4</v>
       </c>
@@ -50293,12 +50434,12 @@
         <f>RnDData!F132</f>
         <v>1280</v>
       </c>
-      <c r="M107" s="37">
+      <c r="N107" s="37">
         <f t="shared" si="17"/>
         <v>33920</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:14">
       <c r="A108" s="37">
         <v>4</v>
       </c>
@@ -50343,12 +50484,12 @@
         <f>RnDData!F133</f>
         <v>1143</v>
       </c>
-      <c r="M108" s="37">
+      <c r="N108" s="37">
         <f t="shared" si="17"/>
         <v>30289.5</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:14">
       <c r="A109" s="37">
         <v>4</v>
       </c>
@@ -50393,12 +50534,12 @@
         <f>RnDData!F134</f>
         <v>1254</v>
       </c>
-      <c r="M109" s="37">
+      <c r="N109" s="37">
         <f t="shared" si="17"/>
         <v>33231</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:14">
       <c r="A110" s="37">
         <v>4</v>
       </c>
@@ -50443,12 +50584,12 @@
         <f>RnDData!F135</f>
         <v>1090</v>
       </c>
-      <c r="M110" s="37">
+      <c r="N110" s="37">
         <f t="shared" si="17"/>
         <v>30520</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:14">
       <c r="A111" s="37">
         <v>4</v>
       </c>
@@ -50493,12 +50634,12 @@
         <f>RnDData!F136</f>
         <v>1521</v>
       </c>
-      <c r="M111" s="37">
+      <c r="N111" s="37">
         <f t="shared" si="17"/>
         <v>31941</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:14">
       <c r="A112" s="37">
         <v>4</v>
       </c>
@@ -50543,12 +50684,12 @@
         <f>RnDData!F137</f>
         <v>1244</v>
       </c>
-      <c r="M112" s="37">
+      <c r="N112" s="37">
         <f t="shared" si="17"/>
         <v>47272</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:14">
       <c r="A113" s="37">
         <v>4</v>
       </c>
@@ -50593,12 +50734,12 @@
         <f>RnDData!F138</f>
         <v>1085</v>
       </c>
-      <c r="M113" s="37">
+      <c r="N113" s="37">
         <f t="shared" si="17"/>
         <v>35805</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:14">
       <c r="A114" s="37">
         <v>4</v>
       </c>
@@ -50643,12 +50784,12 @@
         <f>RnDData!F139</f>
         <v>1249</v>
       </c>
-      <c r="M114" s="37">
+      <c r="N114" s="37">
         <f t="shared" si="17"/>
         <v>41217</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:14">
       <c r="A115" s="37">
         <v>4</v>
       </c>
@@ -50693,12 +50834,12 @@
         <f>RnDData!F140</f>
         <v>792</v>
       </c>
-      <c r="M115" s="37">
+      <c r="N115" s="37">
         <f t="shared" si="17"/>
         <v>30096</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14">
       <c r="A116" s="37">
         <v>4</v>
       </c>
@@ -50737,12 +50878,12 @@
         <f>RnDData!F141</f>
         <v>149</v>
       </c>
-      <c r="M116" s="37">
+      <c r="N116" s="37">
         <f t="shared" si="17"/>
         <v>4917</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="37">
         <v>5</v>
       </c>
@@ -50787,12 +50928,12 @@
         <f>RnDData!F142</f>
         <v>1825</v>
       </c>
-      <c r="M117" s="37">
+      <c r="N117" s="37">
         <f t="shared" si="17"/>
         <v>33762.5</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="A118" s="37">
         <v>5</v>
       </c>
@@ -50837,12 +50978,12 @@
         <f>RnDData!F143</f>
         <v>2779</v>
       </c>
-      <c r="M118" s="37">
+      <c r="N118" s="37">
         <f t="shared" si="17"/>
         <v>51411.5</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="37">
         <v>5</v>
       </c>
@@ -50887,12 +51028,12 @@
         <f>RnDData!F144</f>
         <v>1433</v>
       </c>
-      <c r="M119" s="37">
+      <c r="N119" s="37">
         <f t="shared" si="17"/>
         <v>38691</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120" s="37">
         <v>5</v>
       </c>
@@ -50937,12 +51078,12 @@
         <f>RnDData!F145</f>
         <v>1240</v>
       </c>
-      <c r="M120" s="37">
+      <c r="N120" s="37">
         <f t="shared" si="17"/>
         <v>33480</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="A121" s="37">
         <v>5</v>
       </c>
@@ -50987,12 +51128,12 @@
         <f>RnDData!F146</f>
         <v>1307</v>
       </c>
-      <c r="M121" s="37">
+      <c r="N121" s="37">
         <f t="shared" si="17"/>
         <v>35289</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="37">
         <v>5</v>
       </c>
@@ -51037,12 +51178,12 @@
         <f>RnDData!F147</f>
         <v>814</v>
       </c>
-      <c r="M122" s="37">
+      <c r="N122" s="37">
         <f t="shared" si="17"/>
         <v>30525</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" s="37">
         <v>5</v>
       </c>
@@ -51087,12 +51228,12 @@
         <f>RnDData!F148</f>
         <v>149</v>
       </c>
-      <c r="M123" s="37">
+      <c r="N123" s="37">
         <f t="shared" si="17"/>
         <v>5587.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124" s="37">
         <v>5</v>
       </c>
@@ -51137,12 +51278,12 @@
         <f>RnDData!F149</f>
         <v>1422</v>
       </c>
-      <c r="M124" s="37">
+      <c r="N124" s="37">
         <f t="shared" si="17"/>
         <v>35550</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="37">
         <v>5</v>
       </c>
@@ -51187,12 +51328,12 @@
         <f>RnDData!F150</f>
         <v>2519</v>
       </c>
-      <c r="M125" s="37">
+      <c r="N125" s="37">
         <f t="shared" si="17"/>
         <v>45342</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:14">
       <c r="A126" s="37">
         <v>5</v>
       </c>
@@ -51237,12 +51378,12 @@
         <f>RnDData!F151</f>
         <v>953</v>
       </c>
-      <c r="M126" s="37">
+      <c r="N126" s="37">
         <f t="shared" si="17"/>
         <v>34308</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:14">
       <c r="A127" s="37">
         <v>5</v>
       </c>
@@ -51287,12 +51428,12 @@
         <f>RnDData!F152</f>
         <v>801</v>
       </c>
-      <c r="M127" s="37">
+      <c r="N127" s="37">
         <f t="shared" si="17"/>
         <v>26032.5</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:14">
       <c r="A128" s="37">
         <v>5</v>
       </c>
@@ -51337,12 +51478,12 @@
         <f>RnDData!F153</f>
         <v>871</v>
       </c>
-      <c r="M128" s="37">
+      <c r="N128" s="37">
         <f t="shared" si="17"/>
         <v>27001</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:14">
       <c r="A129" s="37">
         <v>5</v>
       </c>
@@ -51387,12 +51528,12 @@
         <f>RnDData!F154</f>
         <v>1417</v>
       </c>
-      <c r="M129" s="37">
+      <c r="N129" s="37">
         <f t="shared" si="17"/>
         <v>39676</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:14">
       <c r="A130" s="37">
         <v>5</v>
       </c>
@@ -51437,12 +51578,12 @@
         <f>RnDData!F155</f>
         <v>1957</v>
       </c>
-      <c r="M130" s="37">
+      <c r="N130" s="37">
         <f t="shared" si="17"/>
         <v>38161.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:14">
       <c r="A131" s="37">
         <v>5</v>
       </c>
@@ -51487,12 +51628,12 @@
         <f>RnDData!F156</f>
         <v>1058</v>
       </c>
-      <c r="M131" s="37">
+      <c r="N131" s="37">
         <f t="shared" si="17"/>
         <v>39675</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:14">
       <c r="A132" s="37">
         <v>5</v>
       </c>
@@ -51537,12 +51678,12 @@
         <f>RnDData!F157</f>
         <v>982</v>
       </c>
-      <c r="M132" s="37">
-        <f t="shared" ref="M132:M195" si="31">L132*F132</f>
+      <c r="N132" s="37">
+        <f t="shared" ref="N132:N195" si="31">L132*F132</f>
         <v>31915</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:14">
       <c r="A133" s="37">
         <v>5</v>
       </c>
@@ -51587,12 +51728,12 @@
         <f>RnDData!F158</f>
         <v>848</v>
       </c>
-      <c r="M133" s="37">
+      <c r="N133" s="37">
         <f t="shared" si="31"/>
         <v>27560</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:14">
       <c r="A134" s="37">
         <v>5</v>
       </c>
@@ -51637,12 +51778,12 @@
         <f>RnDData!F159</f>
         <v>993</v>
       </c>
-      <c r="M134" s="37">
+      <c r="N134" s="37">
         <f t="shared" si="31"/>
         <v>32272.5</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:14">
       <c r="A135" s="37">
         <v>5</v>
       </c>
@@ -51687,12 +51828,12 @@
         <f>RnDData!F160</f>
         <v>567</v>
       </c>
-      <c r="M135" s="37">
+      <c r="N135" s="37">
         <f t="shared" si="31"/>
         <v>18427.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:14">
       <c r="A136" s="37">
         <v>5</v>
       </c>
@@ -51719,12 +51860,12 @@
         <f>RnDData!F161</f>
         <v>0</v>
       </c>
-      <c r="M136" s="37">
+      <c r="N136" s="37">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:14">
       <c r="A137" s="37">
         <v>5</v>
       </c>
@@ -51769,12 +51910,12 @@
         <f>RnDData!F162</f>
         <v>2040</v>
       </c>
-      <c r="M137" s="37">
+      <c r="N137" s="37">
         <f t="shared" si="31"/>
         <v>38760</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:14">
       <c r="A138" s="37">
         <v>5</v>
       </c>
@@ -51819,12 +51960,12 @@
         <f>RnDData!F163</f>
         <v>2601</v>
       </c>
-      <c r="M138" s="37">
+      <c r="N138" s="37">
         <f t="shared" si="31"/>
         <v>46818</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:14">
       <c r="A139" s="37">
         <v>5</v>
       </c>
@@ -51869,12 +52010,12 @@
         <f>RnDData!F164</f>
         <v>1381</v>
       </c>
-      <c r="M139" s="37">
+      <c r="N139" s="37">
         <f t="shared" si="31"/>
         <v>35906</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:14">
       <c r="A140" s="37">
         <v>5</v>
       </c>
@@ -51919,12 +52060,12 @@
         <f>RnDData!F165</f>
         <v>1335</v>
       </c>
-      <c r="M140" s="37">
+      <c r="N140" s="37">
         <f t="shared" si="31"/>
         <v>34710</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:14">
       <c r="A141" s="37">
         <v>5</v>
       </c>
@@ -51969,12 +52110,12 @@
         <f>RnDData!F166</f>
         <v>1385</v>
       </c>
-      <c r="M141" s="37">
+      <c r="N141" s="37">
         <f t="shared" si="31"/>
         <v>36010</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:14">
       <c r="A142" s="37">
         <v>5</v>
       </c>
@@ -52019,12 +52160,12 @@
         <f>RnDData!F167</f>
         <v>458</v>
       </c>
-      <c r="M142" s="37">
+      <c r="N142" s="37">
         <f t="shared" si="31"/>
         <v>12595</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:14">
       <c r="A143" s="37">
         <v>5</v>
       </c>
@@ -52069,12 +52210,12 @@
         <f>RnDData!F168</f>
         <v>1450</v>
       </c>
-      <c r="M143" s="37">
+      <c r="N143" s="37">
         <f t="shared" si="31"/>
         <v>29000</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:14">
       <c r="A144" s="37">
         <v>5</v>
       </c>
@@ -52119,12 +52260,12 @@
         <f>RnDData!F169</f>
         <v>1337</v>
       </c>
-      <c r="M144" s="37">
+      <c r="N144" s="37">
         <f t="shared" si="31"/>
         <v>50137.5</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14">
       <c r="A145" s="37">
         <v>5</v>
       </c>
@@ -52169,12 +52310,12 @@
         <f>RnDData!F170</f>
         <v>994</v>
       </c>
-      <c r="M145" s="37">
+      <c r="N145" s="37">
         <f t="shared" si="31"/>
         <v>32305</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14">
       <c r="A146" s="37">
         <v>5</v>
       </c>
@@ -52219,12 +52360,12 @@
         <f>RnDData!F171</f>
         <v>953</v>
       </c>
-      <c r="M146" s="37">
+      <c r="N146" s="37">
         <f t="shared" si="31"/>
         <v>30972.5</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:14">
       <c r="A147" s="37">
         <v>5</v>
       </c>
@@ -52269,12 +52410,12 @@
         <f>RnDData!F172</f>
         <v>1238</v>
       </c>
-      <c r="M147" s="37">
+      <c r="N147" s="37">
         <f t="shared" si="31"/>
         <v>46425</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:14">
       <c r="A148" s="37">
         <v>5</v>
       </c>
@@ -52319,12 +52460,12 @@
         <f>RnDData!F173</f>
         <v>587</v>
       </c>
-      <c r="M148" s="37">
+      <c r="N148" s="37">
         <f t="shared" si="31"/>
         <v>19077.5</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:14">
       <c r="A149" s="37">
         <v>5</v>
       </c>
@@ -52355,12 +52496,12 @@
         <f>RnDData!F174</f>
         <v>0</v>
       </c>
-      <c r="M149" s="37">
+      <c r="N149" s="37">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:14">
       <c r="A150" s="37">
         <v>6</v>
       </c>
@@ -52405,12 +52546,12 @@
         <f>RnDData!F175</f>
         <v>2421</v>
       </c>
-      <c r="M150" s="37">
+      <c r="N150" s="37">
         <f t="shared" si="31"/>
         <v>43578</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:14">
       <c r="A151" s="37">
         <v>6</v>
       </c>
@@ -52455,12 +52596,12 @@
         <f>RnDData!F176</f>
         <v>2986</v>
       </c>
-      <c r="M151" s="37">
+      <c r="N151" s="37">
         <f t="shared" si="31"/>
         <v>53748</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:14">
       <c r="A152" s="37">
         <v>6</v>
       </c>
@@ -52505,12 +52646,12 @@
         <f>RnDData!F177</f>
         <v>1896</v>
       </c>
-      <c r="M152" s="37">
+      <c r="N152" s="37">
         <f t="shared" si="31"/>
         <v>50244</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:14">
       <c r="A153" s="37">
         <v>6</v>
       </c>
@@ -52555,12 +52696,12 @@
         <f>RnDData!F178</f>
         <v>1647</v>
       </c>
-      <c r="M153" s="37">
+      <c r="N153" s="37">
         <f t="shared" si="31"/>
         <v>43645.5</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:14">
       <c r="A154" s="37">
         <v>6</v>
       </c>
@@ -52605,12 +52746,12 @@
         <f>RnDData!F179</f>
         <v>1725</v>
       </c>
-      <c r="M154" s="37">
+      <c r="N154" s="37">
         <f t="shared" si="31"/>
         <v>45712.5</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:14">
       <c r="A155" s="37">
         <v>6</v>
       </c>
@@ -52655,12 +52796,12 @@
         <f>RnDData!F180</f>
         <v>803</v>
       </c>
-      <c r="M155" s="37">
+      <c r="N155" s="37">
         <f t="shared" si="31"/>
         <v>29711</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:14">
       <c r="A156" s="37">
         <v>6</v>
       </c>
@@ -52705,12 +52846,12 @@
         <f>RnDData!F181</f>
         <v>594</v>
       </c>
-      <c r="M156" s="37">
+      <c r="N156" s="37">
         <f t="shared" si="31"/>
         <v>21978</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:14">
       <c r="A157" s="37">
         <v>6</v>
       </c>
@@ -52755,12 +52896,12 @@
         <f>RnDData!F182</f>
         <v>1652</v>
       </c>
-      <c r="M157" s="37">
+      <c r="N157" s="37">
         <f t="shared" si="31"/>
         <v>40474</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:14">
       <c r="A158" s="37">
         <v>6</v>
       </c>
@@ -52805,12 +52946,12 @@
         <f>RnDData!F183</f>
         <v>3017</v>
       </c>
-      <c r="M158" s="37">
+      <c r="N158" s="37">
         <f t="shared" si="31"/>
         <v>52797.5</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:14">
       <c r="A159" s="37">
         <v>6</v>
       </c>
@@ -52855,12 +52996,12 @@
         <f>RnDData!F184</f>
         <v>756</v>
       </c>
-      <c r="M159" s="37">
+      <c r="N159" s="37">
         <f t="shared" si="31"/>
         <v>26838</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:14">
       <c r="A160" s="37">
         <v>6</v>
       </c>
@@ -52905,12 +53046,12 @@
         <f>RnDData!F185</f>
         <v>986</v>
       </c>
-      <c r="M160" s="37">
+      <c r="N160" s="37">
         <f t="shared" si="31"/>
         <v>30566</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:14">
       <c r="A161" s="37">
         <v>6</v>
       </c>
@@ -52955,12 +53096,12 @@
         <f>RnDData!F186</f>
         <v>842</v>
       </c>
-      <c r="M161" s="37">
+      <c r="N161" s="37">
         <f t="shared" si="31"/>
         <v>26102</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:14">
       <c r="A162" s="37">
         <v>6</v>
       </c>
@@ -53005,12 +53146,12 @@
         <f>RnDData!F187</f>
         <v>1651</v>
       </c>
-      <c r="M162" s="37">
+      <c r="N162" s="37">
         <f t="shared" si="31"/>
         <v>45402.5</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:14">
       <c r="A163" s="37">
         <v>6</v>
       </c>
@@ -53055,12 +53196,12 @@
         <f>RnDData!F188</f>
         <v>2208</v>
       </c>
-      <c r="M163" s="37">
+      <c r="N163" s="37">
         <f t="shared" si="31"/>
         <v>41952</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:14">
       <c r="A164" s="37">
         <v>6</v>
       </c>
@@ -53105,12 +53246,12 @@
         <f>RnDData!F189</f>
         <v>823</v>
       </c>
-      <c r="M164" s="37">
+      <c r="N164" s="37">
         <f t="shared" si="31"/>
         <v>30451</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:14">
       <c r="A165" s="37">
         <v>6</v>
       </c>
@@ -53155,12 +53296,12 @@
         <f>RnDData!F190</f>
         <v>1203</v>
       </c>
-      <c r="M165" s="37">
+      <c r="N165" s="37">
         <f t="shared" si="31"/>
         <v>38496</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:14">
       <c r="A166" s="37">
         <v>6</v>
       </c>
@@ -53205,12 +53346,12 @@
         <f>RnDData!F191</f>
         <v>833</v>
       </c>
-      <c r="M166" s="37">
+      <c r="N166" s="37">
         <f t="shared" si="31"/>
         <v>26656</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:14">
       <c r="A167" s="37">
         <v>6</v>
       </c>
@@ -53255,12 +53396,12 @@
         <f>RnDData!F192</f>
         <v>1192</v>
       </c>
-      <c r="M167" s="37">
+      <c r="N167" s="37">
         <f t="shared" si="31"/>
         <v>38144</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:14">
       <c r="A168" s="37">
         <v>6</v>
       </c>
@@ -53305,12 +53446,12 @@
         <f>RnDData!F193</f>
         <v>688</v>
       </c>
-      <c r="M168" s="37">
+      <c r="N168" s="37">
         <f t="shared" si="31"/>
         <v>22016</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:14">
       <c r="A169" s="37">
         <v>6</v>
       </c>
@@ -53355,12 +53496,12 @@
         <f>RnDData!F194</f>
         <v>346</v>
       </c>
-      <c r="M169" s="37">
+      <c r="N169" s="37">
         <f t="shared" si="31"/>
         <v>12802</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:14">
       <c r="A170" s="37">
         <v>6</v>
       </c>
@@ -53405,12 +53546,12 @@
         <f>RnDData!F195</f>
         <v>2565</v>
       </c>
-      <c r="M170" s="37">
+      <c r="N170" s="37">
         <f t="shared" si="31"/>
         <v>46170</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:14">
       <c r="A171" s="37">
         <v>6</v>
       </c>
@@ -53455,12 +53596,12 @@
         <f>RnDData!F196</f>
         <v>2758</v>
       </c>
-      <c r="M171" s="37">
+      <c r="N171" s="37">
         <f t="shared" si="31"/>
         <v>49644</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:14">
       <c r="A172" s="37">
         <v>6</v>
       </c>
@@ -53505,12 +53646,12 @@
         <f>RnDData!F197</f>
         <v>1438</v>
       </c>
-      <c r="M172" s="37">
+      <c r="N172" s="37">
         <f t="shared" si="31"/>
         <v>36669</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:14">
       <c r="A173" s="37">
         <v>6</v>
       </c>
@@ -53555,12 +53696,12 @@
         <f>RnDData!F198</f>
         <v>1100</v>
       </c>
-      <c r="M173" s="37">
+      <c r="N173" s="37">
         <f t="shared" si="31"/>
         <v>28050</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:14">
       <c r="A174" s="37">
         <v>6</v>
       </c>
@@ -53605,12 +53746,12 @@
         <f>RnDData!F199</f>
         <v>1309</v>
       </c>
-      <c r="M174" s="37">
+      <c r="N174" s="37">
         <f t="shared" si="31"/>
         <v>33379.5</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:14">
       <c r="A175" s="37">
         <v>6</v>
       </c>
@@ -53655,12 +53796,12 @@
         <f>RnDData!F200</f>
         <v>752</v>
       </c>
-      <c r="M175" s="37">
+      <c r="N175" s="37">
         <f t="shared" si="31"/>
         <v>16544</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:14">
       <c r="A176" s="37">
         <v>6</v>
       </c>
@@ -53705,12 +53846,12 @@
         <f>RnDData!F201</f>
         <v>601</v>
       </c>
-      <c r="M176" s="37">
+      <c r="N176" s="37">
         <f t="shared" si="31"/>
         <v>13222</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:14">
       <c r="A177" s="37">
         <v>6</v>
       </c>
@@ -53755,12 +53896,12 @@
         <f>RnDData!F202</f>
         <v>1124</v>
       </c>
-      <c r="M177" s="37">
+      <c r="N177" s="37">
         <f t="shared" si="31"/>
         <v>41588</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:14">
       <c r="A178" s="37">
         <v>6</v>
       </c>
@@ -53805,12 +53946,12 @@
         <f>RnDData!F203</f>
         <v>1059</v>
       </c>
-      <c r="M178" s="37">
+      <c r="N178" s="37">
         <f t="shared" si="31"/>
         <v>33888</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:14">
       <c r="A179" s="37">
         <v>6</v>
       </c>
@@ -53855,12 +53996,12 @@
         <f>RnDData!F204</f>
         <v>1030</v>
       </c>
-      <c r="M179" s="37">
+      <c r="N179" s="37">
         <f t="shared" si="31"/>
         <v>32960</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:14">
       <c r="A180" s="37">
         <v>6</v>
       </c>
@@ -53905,12 +54046,12 @@
         <f>RnDData!F205</f>
         <v>1051</v>
       </c>
-      <c r="M180" s="37">
+      <c r="N180" s="37">
         <f t="shared" si="31"/>
         <v>38887</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:14">
       <c r="A181" s="37">
         <v>6</v>
       </c>
@@ -53955,12 +54096,12 @@
         <f>RnDData!F206</f>
         <v>929</v>
       </c>
-      <c r="M181" s="37">
+      <c r="N181" s="37">
         <f t="shared" si="31"/>
         <v>29728</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:14">
       <c r="A182" s="37">
         <v>6</v>
       </c>
@@ -54002,12 +54143,12 @@
         <f>RnDData!F207</f>
         <v>941</v>
       </c>
-      <c r="M182" s="37">
+      <c r="N182" s="37">
         <f t="shared" si="31"/>
         <v>34817</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:14">
       <c r="A183" s="37">
         <v>7</v>
       </c>
@@ -54052,12 +54193,12 @@
         <f>RnDData!F208</f>
         <v>2474</v>
       </c>
-      <c r="M183" s="37">
+      <c r="N183" s="37">
         <f t="shared" si="31"/>
         <v>44532</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:14">
       <c r="A184" s="37">
         <v>7</v>
       </c>
@@ -54102,12 +54243,12 @@
         <f>RnDData!F209</f>
         <v>2904</v>
       </c>
-      <c r="M184" s="37">
+      <c r="N184" s="37">
         <f t="shared" si="31"/>
         <v>52272</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:14">
       <c r="A185" s="37">
         <v>7</v>
       </c>
@@ -54152,12 +54293,12 @@
         <f>RnDData!F210</f>
         <v>1922</v>
       </c>
-      <c r="M185" s="37">
+      <c r="N185" s="37">
         <f t="shared" si="31"/>
         <v>50933</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:14">
       <c r="A186" s="37">
         <v>7</v>
       </c>
@@ -54202,12 +54343,12 @@
         <f>RnDData!F211</f>
         <v>1751</v>
       </c>
-      <c r="M186" s="37">
+      <c r="N186" s="37">
         <f t="shared" si="31"/>
         <v>46401.5</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:14">
       <c r="A187" s="37">
         <v>7</v>
       </c>
@@ -54252,12 +54393,12 @@
         <f>RnDData!F212</f>
         <v>1781</v>
       </c>
-      <c r="M187" s="37">
+      <c r="N187" s="37">
         <f t="shared" si="31"/>
         <v>47196.5</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:14">
       <c r="A188" s="37">
         <v>7</v>
       </c>
@@ -54302,12 +54443,12 @@
         <f>RnDData!F213</f>
         <v>735</v>
       </c>
-      <c r="M188" s="37">
+      <c r="N188" s="37">
         <f t="shared" si="31"/>
         <v>27195</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:14">
       <c r="A189" s="37">
         <v>7</v>
       </c>
@@ -54352,12 +54493,12 @@
         <f>RnDData!F214</f>
         <v>675</v>
       </c>
-      <c r="M189" s="37">
+      <c r="N189" s="37">
         <f t="shared" si="31"/>
         <v>24975</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:14">
       <c r="A190" s="37">
         <v>7</v>
       </c>
@@ -54402,12 +54543,12 @@
         <f>RnDData!F215</f>
         <v>1874</v>
       </c>
-      <c r="M190" s="37">
+      <c r="N190" s="37">
         <f t="shared" si="31"/>
         <v>44976</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:14">
       <c r="A191" s="37">
         <v>7</v>
       </c>
@@ -54452,12 +54593,12 @@
         <f>RnDData!F216</f>
         <v>3644</v>
       </c>
-      <c r="M191" s="37">
+      <c r="N191" s="37">
         <f t="shared" si="31"/>
         <v>61948</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:14">
       <c r="A192" s="37">
         <v>7</v>
       </c>
@@ -54502,12 +54643,12 @@
         <f>RnDData!F217</f>
         <v>833</v>
       </c>
-      <c r="M192" s="37">
+      <c r="N192" s="37">
         <f t="shared" si="31"/>
         <v>29155</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:14">
       <c r="A193" s="37">
         <v>7</v>
       </c>
@@ -54552,12 +54693,12 @@
         <f>RnDData!F218</f>
         <v>869</v>
       </c>
-      <c r="M193" s="37">
+      <c r="N193" s="37">
         <f t="shared" si="31"/>
         <v>27373.5</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:14">
       <c r="A194" s="37">
         <v>7</v>
       </c>
@@ -54602,12 +54743,12 @@
         <f>RnDData!F219</f>
         <v>1001</v>
       </c>
-      <c r="M194" s="37">
+      <c r="N194" s="37">
         <f t="shared" si="31"/>
         <v>31531.5</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:14">
       <c r="A195" s="37">
         <v>7</v>
       </c>
@@ -54652,12 +54793,12 @@
         <f>RnDData!F220</f>
         <v>1950</v>
       </c>
-      <c r="M195" s="37">
+      <c r="N195" s="37">
         <f t="shared" si="31"/>
         <v>51675</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:14">
       <c r="A196" s="37">
         <v>7</v>
       </c>
@@ -54702,12 +54843,12 @@
         <f>RnDData!F221</f>
         <v>2841</v>
       </c>
-      <c r="M196" s="37">
-        <f t="shared" ref="M196:M248" si="44">L196*F196</f>
+      <c r="N196" s="37">
+        <f t="shared" ref="N196:N248" si="44">L196*F196</f>
         <v>52558.5</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:14">
       <c r="A197" s="37">
         <v>7</v>
       </c>
@@ -54752,12 +54893,12 @@
         <f>RnDData!F222</f>
         <v>888</v>
       </c>
-      <c r="M197" s="37">
+      <c r="N197" s="37">
         <f t="shared" si="44"/>
         <v>32412</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:14">
       <c r="A198" s="37">
         <v>7</v>
       </c>
@@ -54802,12 +54943,12 @@
         <f>RnDData!F223</f>
         <v>1076</v>
       </c>
-      <c r="M198" s="37">
+      <c r="N198" s="37">
         <f t="shared" si="44"/>
         <v>33894</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:14">
       <c r="A199" s="37">
         <v>7</v>
       </c>
@@ -54852,12 +54993,12 @@
         <f>RnDData!F224</f>
         <v>955</v>
       </c>
-      <c r="M199" s="37">
+      <c r="N199" s="37">
         <f t="shared" si="44"/>
         <v>30082.5</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:14">
       <c r="A200" s="37">
         <v>7</v>
       </c>
@@ -54902,12 +55043,12 @@
         <f>RnDData!F225</f>
         <v>1149</v>
       </c>
-      <c r="M200" s="37">
+      <c r="N200" s="37">
         <f t="shared" si="44"/>
         <v>36193.5</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:14">
       <c r="A201" s="37">
         <v>7</v>
       </c>
@@ -54952,12 +55093,12 @@
         <f>RnDData!F226</f>
         <v>849</v>
       </c>
-      <c r="M201" s="37">
+      <c r="N201" s="37">
         <f t="shared" si="44"/>
         <v>26743.5</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:14">
       <c r="A202" s="37">
         <v>7</v>
       </c>
@@ -55002,12 +55143,12 @@
         <f>RnDData!F227</f>
         <v>927</v>
       </c>
-      <c r="M202" s="37">
+      <c r="N202" s="37">
         <f t="shared" si="44"/>
         <v>33835.5</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:14">
       <c r="A203" s="37">
         <v>7</v>
       </c>
@@ -55052,12 +55193,12 @@
         <f>RnDData!F228</f>
         <v>2732</v>
       </c>
-      <c r="M203" s="37">
+      <c r="N203" s="37">
         <f t="shared" si="44"/>
         <v>47810</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:14">
       <c r="A204" s="37">
         <v>7</v>
       </c>
@@ -55102,12 +55243,12 @@
         <f>RnDData!F229</f>
         <v>3023</v>
       </c>
-      <c r="M204" s="37">
+      <c r="N204" s="37">
         <f t="shared" si="44"/>
         <v>52902.5</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:14">
       <c r="A205" s="37">
         <v>7</v>
       </c>
@@ -55152,12 +55293,12 @@
         <f>RnDData!F230</f>
         <v>1726</v>
       </c>
-      <c r="M205" s="37">
+      <c r="N205" s="37">
         <f t="shared" si="44"/>
         <v>43150</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:14">
       <c r="A206" s="37">
         <v>7</v>
       </c>
@@ -55202,12 +55343,12 @@
         <f>RnDData!F231</f>
         <v>1482</v>
       </c>
-      <c r="M206" s="37">
+      <c r="N206" s="37">
         <f t="shared" si="44"/>
         <v>37050</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:14">
       <c r="A207" s="37">
         <v>7</v>
       </c>
@@ -55252,12 +55393,12 @@
         <f>RnDData!F232</f>
         <v>1660</v>
       </c>
-      <c r="M207" s="37">
+      <c r="N207" s="37">
         <f t="shared" si="44"/>
         <v>41500</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:14">
       <c r="A208" s="37">
         <v>7</v>
       </c>
@@ -55302,12 +55443,12 @@
         <f>RnDData!F233</f>
         <v>1111</v>
       </c>
-      <c r="M208" s="37">
+      <c r="N208" s="37">
         <f t="shared" si="44"/>
         <v>23886.5</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:14">
       <c r="A209" s="37">
         <v>7</v>
       </c>
@@ -55352,12 +55493,12 @@
         <f>RnDData!F234</f>
         <v>657</v>
       </c>
-      <c r="M209" s="37">
+      <c r="N209" s="37">
         <f t="shared" si="44"/>
         <v>20695.5</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:14">
       <c r="A210" s="37">
         <v>7</v>
       </c>
@@ -55402,12 +55543,12 @@
         <f>RnDData!F235</f>
         <v>1114</v>
       </c>
-      <c r="M210" s="37">
+      <c r="N210" s="37">
         <f t="shared" si="44"/>
         <v>40661</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:14">
       <c r="A211" s="37">
         <v>7</v>
       </c>
@@ -55452,12 +55593,12 @@
         <f>RnDData!F236</f>
         <v>1020</v>
       </c>
-      <c r="M211" s="37">
+      <c r="N211" s="37">
         <f t="shared" si="44"/>
         <v>32130</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:14">
       <c r="A212" s="37">
         <v>7</v>
       </c>
@@ -55502,12 +55643,12 @@
         <f>RnDData!F237</f>
         <v>1226</v>
       </c>
-      <c r="M212" s="37">
+      <c r="N212" s="37">
         <f t="shared" si="44"/>
         <v>38619</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:14">
       <c r="A213" s="37">
         <v>7</v>
       </c>
@@ -55552,12 +55693,12 @@
         <f>RnDData!F238</f>
         <v>1007</v>
       </c>
-      <c r="M213" s="37">
+      <c r="N213" s="37">
         <f t="shared" si="44"/>
         <v>36755.5</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:14">
       <c r="A214" s="37">
         <v>7</v>
       </c>
@@ -55602,12 +55743,12 @@
         <f>RnDData!F239</f>
         <v>1239</v>
       </c>
-      <c r="M214" s="37">
+      <c r="N214" s="37">
         <f t="shared" si="44"/>
         <v>39028.5</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:14">
       <c r="A215" s="37">
         <v>7</v>
       </c>
@@ -55652,12 +55793,12 @@
         <f>RnDData!F240</f>
         <v>1211</v>
       </c>
-      <c r="M215" s="37">
+      <c r="N215" s="37">
         <f t="shared" si="44"/>
         <v>44201.5</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:14">
       <c r="A216" s="37">
         <v>8</v>
       </c>
@@ -55702,12 +55843,12 @@
         <f>RnDData!F241</f>
         <v>2102</v>
       </c>
-      <c r="M216" s="37">
+      <c r="N216" s="37">
         <f t="shared" si="44"/>
         <v>38887</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:14">
       <c r="A217" s="37">
         <v>8</v>
       </c>
@@ -55752,12 +55893,12 @@
         <f>RnDData!F242</f>
         <v>2600</v>
       </c>
-      <c r="M217" s="37">
+      <c r="N217" s="37">
         <f t="shared" si="44"/>
         <v>48100</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:14">
       <c r="A218" s="37">
         <v>8</v>
       </c>
@@ -55802,12 +55943,12 @@
         <f>RnDData!F243</f>
         <v>1747</v>
       </c>
-      <c r="M218" s="37">
+      <c r="N218" s="37">
         <f t="shared" si="44"/>
         <v>45422</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:14">
       <c r="A219" s="37">
         <v>8</v>
       </c>
@@ -55852,12 +55993,12 @@
         <f>RnDData!F244</f>
         <v>1604</v>
       </c>
-      <c r="M219" s="37">
+      <c r="N219" s="37">
         <f t="shared" si="44"/>
         <v>41704</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:14">
       <c r="A220" s="37">
         <v>8</v>
       </c>
@@ -55902,12 +56043,12 @@
         <f>RnDData!F245</f>
         <v>1643</v>
       </c>
-      <c r="M220" s="37">
+      <c r="N220" s="37">
         <f t="shared" si="44"/>
         <v>42718</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:14">
       <c r="A221" s="37">
         <v>8</v>
       </c>
@@ -55952,12 +56093,12 @@
         <f>RnDData!F246</f>
         <v>869</v>
       </c>
-      <c r="M221" s="37">
+      <c r="N221" s="37">
         <f t="shared" si="44"/>
         <v>31284</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:14">
       <c r="A222" s="37">
         <v>8</v>
       </c>
@@ -56002,12 +56143,12 @@
         <f>RnDData!F247</f>
         <v>577</v>
       </c>
-      <c r="M222" s="37">
+      <c r="N222" s="37">
         <f t="shared" si="44"/>
         <v>20772</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:14">
       <c r="A223" s="37">
         <v>8</v>
       </c>
@@ -56052,12 +56193,12 @@
         <f>RnDData!F248</f>
         <v>1753</v>
       </c>
-      <c r="M223" s="37">
+      <c r="N223" s="37">
         <f t="shared" si="44"/>
         <v>41195.5</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:14">
       <c r="A224" s="37">
         <v>8</v>
       </c>
@@ -56102,12 +56243,12 @@
         <f>RnDData!F249</f>
         <v>3105</v>
       </c>
-      <c r="M224" s="37">
+      <c r="N224" s="37">
         <f t="shared" si="44"/>
         <v>57442.5</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:14">
       <c r="A225" s="37">
         <v>8</v>
       </c>
@@ -56152,12 +56293,12 @@
         <f>RnDData!F250</f>
         <v>900</v>
       </c>
-      <c r="M225" s="37">
+      <c r="N225" s="37">
         <f t="shared" si="44"/>
         <v>31500</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:14">
       <c r="A226" s="37">
         <v>8</v>
       </c>
@@ -56202,12 +56343,12 @@
         <f>RnDData!F251</f>
         <v>1063</v>
       </c>
-      <c r="M226" s="37">
+      <c r="N226" s="37">
         <f t="shared" si="44"/>
         <v>32953</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:14">
       <c r="A227" s="37">
         <v>8</v>
       </c>
@@ -56252,12 +56393,12 @@
         <f>RnDData!F252</f>
         <v>1369</v>
       </c>
-      <c r="M227" s="37">
+      <c r="N227" s="37">
         <f t="shared" si="44"/>
         <v>42439</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:14">
       <c r="A228" s="37">
         <v>8</v>
       </c>
@@ -56302,12 +56443,12 @@
         <f>RnDData!F253</f>
         <v>1677</v>
       </c>
-      <c r="M228" s="37">
+      <c r="N228" s="37">
         <f t="shared" si="44"/>
         <v>43602</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:14">
       <c r="A229" s="37">
         <v>8</v>
       </c>
@@ -56352,12 +56493,12 @@
         <f>RnDData!F254</f>
         <v>2930</v>
       </c>
-      <c r="M229" s="37">
+      <c r="N229" s="37">
         <f t="shared" si="44"/>
         <v>52740</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:14">
       <c r="A230" s="37">
         <v>8</v>
       </c>
@@ -56402,12 +56543,12 @@
         <f>RnDData!F255</f>
         <v>1006</v>
       </c>
-      <c r="M230" s="37">
+      <c r="N230" s="37">
         <f t="shared" si="44"/>
         <v>36216</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:14">
       <c r="A231" s="37">
         <v>8</v>
       </c>
@@ -56452,12 +56593,12 @@
         <f>RnDData!F256</f>
         <v>1319</v>
       </c>
-      <c r="M231" s="37">
+      <c r="N231" s="37">
         <f t="shared" si="44"/>
         <v>40889</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:14">
       <c r="A232" s="37">
         <v>8</v>
       </c>
@@ -56502,12 +56643,12 @@
         <f>RnDData!F257</f>
         <v>1175</v>
       </c>
-      <c r="M232" s="37">
+      <c r="N232" s="37">
         <f t="shared" si="44"/>
         <v>36425</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:14">
       <c r="A233" s="37">
         <v>8</v>
       </c>
@@ -56552,12 +56693,12 @@
         <f>RnDData!F258</f>
         <v>1403</v>
       </c>
-      <c r="M233" s="37">
+      <c r="N233" s="37">
         <f t="shared" si="44"/>
         <v>43493</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:14">
       <c r="A234" s="37">
         <v>8</v>
       </c>
@@ -56602,12 +56743,12 @@
         <f>RnDData!F259</f>
         <v>1146</v>
       </c>
-      <c r="M234" s="37">
+      <c r="N234" s="37">
         <f t="shared" si="44"/>
         <v>35526</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:14">
       <c r="A235" s="37">
         <v>8</v>
       </c>
@@ -56652,12 +56793,12 @@
         <f>RnDData!F260</f>
         <v>1093</v>
       </c>
-      <c r="M235" s="37">
+      <c r="N235" s="37">
         <f t="shared" si="44"/>
         <v>39348</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:14">
       <c r="A236" s="37">
         <v>8</v>
       </c>
@@ -56702,12 +56843,12 @@
         <f>RnDData!F261</f>
         <v>3026</v>
       </c>
-      <c r="M236" s="37">
+      <c r="N236" s="37">
         <f t="shared" si="44"/>
         <v>51442</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:14">
       <c r="A237" s="37">
         <v>8</v>
       </c>
@@ -56752,12 +56893,12 @@
         <f>RnDData!F262</f>
         <v>2964</v>
       </c>
-      <c r="M237" s="37">
+      <c r="N237" s="37">
         <f t="shared" si="44"/>
         <v>50388</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:14">
       <c r="A238" s="37">
         <v>8</v>
       </c>
@@ -56802,12 +56943,12 @@
         <f>RnDData!F263</f>
         <v>1591</v>
       </c>
-      <c r="M238" s="37">
+      <c r="N238" s="37">
         <f t="shared" si="44"/>
         <v>38979.5</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:14">
       <c r="A239" s="37">
         <v>8</v>
       </c>
@@ -56852,12 +56993,12 @@
         <f>RnDData!F264</f>
         <v>1445</v>
       </c>
-      <c r="M239" s="37">
+      <c r="N239" s="37">
         <f t="shared" si="44"/>
         <v>35402.5</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:14">
       <c r="A240" s="37">
         <v>8</v>
       </c>
@@ -56902,12 +57043,12 @@
         <f>RnDData!F265</f>
         <v>1574</v>
       </c>
-      <c r="M240" s="37">
+      <c r="N240" s="37">
         <f t="shared" si="44"/>
         <v>38563</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:14">
       <c r="A241" s="37">
         <v>8</v>
       </c>
@@ -56952,12 +57093,12 @@
         <f>RnDData!F266</f>
         <v>1278</v>
       </c>
-      <c r="M241" s="37">
+      <c r="N241" s="37">
         <f t="shared" si="44"/>
         <v>26838</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:14">
       <c r="A242" s="37">
         <v>8</v>
       </c>
@@ -57002,12 +57143,12 @@
         <f>RnDData!F267</f>
         <v>1047</v>
       </c>
-      <c r="M242" s="37">
+      <c r="N242" s="37">
         <f t="shared" si="44"/>
         <v>32457</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:14">
       <c r="A243" s="37">
         <v>8</v>
       </c>
@@ -57052,12 +57193,12 @@
         <f>RnDData!F268</f>
         <v>1251</v>
       </c>
-      <c r="M243" s="37">
+      <c r="N243" s="37">
         <f t="shared" si="44"/>
         <v>45036</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:14">
       <c r="A244" s="37">
         <v>8</v>
       </c>
@@ -57102,12 +57243,12 @@
         <f>RnDData!F269</f>
         <v>1342</v>
       </c>
-      <c r="M244" s="37">
+      <c r="N244" s="37">
         <f t="shared" si="44"/>
         <v>41602</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:14">
       <c r="A245" s="37">
         <v>8</v>
       </c>
@@ -57152,12 +57293,12 @@
         <f>RnDData!F270</f>
         <v>1625</v>
       </c>
-      <c r="M245" s="37">
+      <c r="N245" s="37">
         <f t="shared" si="44"/>
         <v>50375</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:14">
       <c r="A246" s="37">
         <v>8</v>
       </c>
@@ -57202,12 +57343,12 @@
         <f>RnDData!F271</f>
         <v>1116</v>
       </c>
-      <c r="M246" s="37">
+      <c r="N246" s="37">
         <f t="shared" si="44"/>
         <v>40176</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:14">
       <c r="A247" s="37">
         <v>8</v>
       </c>
@@ -57252,12 +57393,12 @@
         <f>RnDData!F272</f>
         <v>1698</v>
       </c>
-      <c r="M247" s="37">
+      <c r="N247" s="37">
         <f t="shared" si="44"/>
         <v>52638</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:14">
       <c r="A248" s="37">
         <v>8</v>
       </c>
@@ -57302,7 +57443,7 @@
         <f>RnDData!F273</f>
         <v>1316</v>
       </c>
-      <c r="M248" s="37">
+      <c r="N248" s="37">
         <f t="shared" si="44"/>
         <v>47376</v>
       </c>
@@ -57317,7 +57458,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:S1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -57693,9 +57834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:U27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -77719,9 +77860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -79033,4 +79172,1345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="39">
+        <v>1176</v>
+      </c>
+      <c r="D1">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G1">
+        <v>17200</v>
+      </c>
+      <c r="H1">
+        <v>5.5</v>
+      </c>
+      <c r="I1">
+        <v>15.3</v>
+      </c>
+      <c r="J1">
+        <v>27.3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="N1" s="38">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P1" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q1" s="38">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1545</v>
+      </c>
+      <c r="D2">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>5.6</v>
+      </c>
+      <c r="G2">
+        <v>14000</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>21.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="38">
+        <v>0.32</v>
+      </c>
+      <c r="N2" s="38">
+        <v>0.18</v>
+      </c>
+      <c r="O2">
+        <v>5.4</v>
+      </c>
+      <c r="P2" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>521</v>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <v>1.5</v>
+      </c>
+      <c r="G3">
+        <v>23500</v>
+      </c>
+      <c r="H3">
+        <v>8.9</v>
+      </c>
+      <c r="I3">
+        <v>11.1</v>
+      </c>
+      <c r="J3">
+        <v>37.6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>525</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="38">
+        <v>0.33</v>
+      </c>
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3.4</v>
+      </c>
+      <c r="P3">
+        <v>900</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>410</v>
+      </c>
+      <c r="D4">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>24000</v>
+      </c>
+      <c r="H4">
+        <v>9.4</v>
+      </c>
+      <c r="I4">
+        <v>14.5</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>526</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.4</v>
+      </c>
+      <c r="P4">
+        <v>600</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>447</v>
+      </c>
+      <c r="D5">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>18500</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>11.2</v>
+      </c>
+      <c r="J5">
+        <v>32.15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>527</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3.4</v>
+      </c>
+      <c r="P5">
+        <v>600</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1211</v>
+      </c>
+      <c r="D6">
+        <v>116</v>
+      </c>
+      <c r="E6" s="20">
+        <v>40427</v>
+      </c>
+      <c r="F6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G6">
+        <v>16500</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>528</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="39">
+        <v>1500</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1953</v>
+      </c>
+      <c r="D7">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>5.6</v>
+      </c>
+      <c r="G7">
+        <v>13000</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>478</v>
+      </c>
+      <c r="D8">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8">
+        <v>1.4</v>
+      </c>
+      <c r="G8">
+        <v>23000</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>530</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>490</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <v>26000</v>
+      </c>
+      <c r="H9">
+        <v>10.4</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>531</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>390</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10" s="20">
+        <v>40340</v>
+      </c>
+      <c r="F10">
+        <v>1.9</v>
+      </c>
+      <c r="G10">
+        <v>18000</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>532</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.32</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1196</v>
+      </c>
+      <c r="D11">
+        <v>132</v>
+      </c>
+      <c r="E11" s="20">
+        <v>40215</v>
+      </c>
+      <c r="F11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11">
+        <v>18000</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>29.5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>533</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.5</v>
+      </c>
+      <c r="P11" s="39">
+        <v>1500</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1584</v>
+      </c>
+      <c r="D12">
+        <v>138</v>
+      </c>
+      <c r="E12" s="20">
+        <v>40391</v>
+      </c>
+      <c r="F12">
+        <v>5.6</v>
+      </c>
+      <c r="G12">
+        <v>14500</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0.32</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.21</v>
+      </c>
+      <c r="O12">
+        <v>5.5</v>
+      </c>
+      <c r="P12" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>465</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" s="20">
+        <v>40340</v>
+      </c>
+      <c r="F13">
+        <v>1.4</v>
+      </c>
+      <c r="G13">
+        <v>24000</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>39.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>534</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="38">
+        <v>0.35</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>488</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14">
+        <v>1.9</v>
+      </c>
+      <c r="G14">
+        <v>26000</v>
+      </c>
+      <c r="H14">
+        <v>10.4</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>34.5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>531</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.5</v>
+      </c>
+      <c r="P14">
+        <v>600</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>411</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15">
+        <v>1.9</v>
+      </c>
+      <c r="G15">
+        <v>19500</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>34.5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>535</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0.35</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.5</v>
+      </c>
+      <c r="P15">
+        <v>600</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1297</v>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G16">
+        <v>16000</v>
+      </c>
+      <c r="H16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I16">
+        <v>15.1</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2128</v>
+      </c>
+      <c r="D17">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>5.6</v>
+      </c>
+      <c r="G17">
+        <v>13000</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>529</v>
+      </c>
+      <c r="L17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="38">
+        <v>0.24</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0.64</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>285</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <v>20000</v>
+      </c>
+      <c r="H18">
+        <v>7.2</v>
+      </c>
+      <c r="I18">
+        <v>12.8</v>
+      </c>
+      <c r="J18">
+        <v>39.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>537</v>
+      </c>
+      <c r="L18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="38">
+        <v>0.37</v>
+      </c>
+      <c r="N18" s="38">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>900</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>302</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19" s="20">
+        <v>40370</v>
+      </c>
+      <c r="F19">
+        <v>1.8</v>
+      </c>
+      <c r="G19">
+        <v>22000</v>
+      </c>
+      <c r="H19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>34.5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>538</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>600</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>276</v>
+      </c>
+      <c r="D20">
+        <v>84</v>
+      </c>
+      <c r="E20" s="20">
+        <v>40310</v>
+      </c>
+      <c r="F20">
+        <v>1.8</v>
+      </c>
+      <c r="G20">
+        <v>16000</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>34.5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>539</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N20" s="38">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>600</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1529</v>
+      </c>
+      <c r="D21">
+        <v>145</v>
+      </c>
+      <c r="E21" s="20">
+        <v>40240</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>17500</v>
+      </c>
+      <c r="H21">
+        <v>5.6</v>
+      </c>
+      <c r="I21">
+        <v>14.5</v>
+      </c>
+      <c r="J21">
+        <v>29.5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>540</v>
+      </c>
+      <c r="L21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N21" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" s="39">
+        <v>1300</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="39">
+        <v>1343</v>
+      </c>
+      <c r="D22">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22">
+        <v>5.6</v>
+      </c>
+      <c r="G22">
+        <v>12000</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>541</v>
+      </c>
+      <c r="L22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="38">
+        <v>0.37</v>
+      </c>
+      <c r="N22" s="38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" s="39">
+        <v>1400</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>427</v>
+      </c>
+      <c r="D23">
+        <v>108</v>
+      </c>
+      <c r="E23" s="20">
+        <v>40402</v>
+      </c>
+      <c r="F23">
+        <v>1.4</v>
+      </c>
+      <c r="G23">
+        <v>25000</v>
+      </c>
+      <c r="H23">
+        <v>9.1</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>39.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>542</v>
+      </c>
+      <c r="L23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="38">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>436</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24">
+        <v>1.8</v>
+      </c>
+      <c r="G24">
+        <v>26000</v>
+      </c>
+      <c r="H24">
+        <v>10.7</v>
+      </c>
+      <c r="I24">
+        <v>14.8</v>
+      </c>
+      <c r="J24">
+        <v>34.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>543</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>367</v>
+      </c>
+      <c r="D25">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25">
+        <v>1.8</v>
+      </c>
+      <c r="G25">
+        <v>19000</v>
+      </c>
+      <c r="H25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J25">
+        <v>34.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>544</v>
+      </c>
+      <c r="L25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="N25" s="38">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>500</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>0.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>